--- a/Gantt chart 01.xlsx
+++ b/Gantt chart 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Yiu\Data Science\CETM46\Additional materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Yiu\Data Science\CETM46\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC7AD0-F480-4E2E-8929-9855DA73B917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A96EB-4024-4519-A4E3-5B379CCF3D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
-  <si>
-    <t>GANTT CHART TEMPLATE</t>
-  </si>
-  <si>
-    <t>Smartsheet Tip ➜</t>
-  </si>
-  <si>
-    <t>A Gantt chart's visual timeline allows you to see details about each task as well as project dependencies.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -76,18 +67,6 @@
     <t>PCT OF TASK COMPLETE</t>
   </si>
   <si>
-    <t>PHASE ONE</t>
-  </si>
-  <si>
-    <t>PHASE TWO</t>
-  </si>
-  <si>
-    <t>PHASE THREE</t>
-  </si>
-  <si>
-    <t>PHASE FOUR</t>
-  </si>
-  <si>
     <t>WEEK 1</t>
   </si>
   <si>
@@ -118,12 +97,6 @@
     <t>WEEK 10</t>
   </si>
   <si>
-    <t>WEEK 11</t>
-  </si>
-  <si>
-    <t>WEEK 12</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -139,54 +112,21 @@
     <t>F</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>project charter</t>
-  </si>
-  <si>
-    <t>business &amp; domain study</t>
-  </si>
-  <si>
     <t>gantt chart</t>
   </si>
   <si>
-    <t>topic</t>
-  </si>
-  <si>
     <t>literature research</t>
   </si>
   <si>
     <t>dataset</t>
   </si>
   <si>
-    <t>ideas</t>
-  </si>
-  <si>
     <t>Deliverables</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
     <t>YCW</t>
   </si>
   <si>
-    <t>Project discussion</t>
-  </si>
-  <si>
-    <t>Comparision of software tools</t>
-  </si>
-  <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
-    <t>Methodology</t>
-  </si>
-  <si>
     <t>Report writing</t>
   </si>
   <si>
@@ -196,43 +136,58 @@
     <t>Data sourcing</t>
   </si>
   <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>business model</t>
-  </si>
-  <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>The product</t>
-  </si>
-  <si>
-    <t>Tools list</t>
-  </si>
-  <si>
-    <t>Topic confirmation</t>
-  </si>
-  <si>
-    <t>Target ML model</t>
-  </si>
-  <si>
-    <t>Completed assignment</t>
-  </si>
-  <si>
-    <t>- Business study</t>
-  </si>
-  <si>
-    <t>- Application area</t>
-  </si>
-  <si>
-    <t>- 'Comparision of data science methodology</t>
-  </si>
-  <si>
-    <t>- Comparision of machine learning model</t>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>GANTT CHART</t>
+  </si>
+  <si>
+    <t>Business &amp; domain study</t>
+  </si>
+  <si>
+    <t>Define product requirements</t>
+  </si>
+  <si>
+    <t>Comparison of data science methodology</t>
+  </si>
+  <si>
+    <t>Product verification test</t>
+  </si>
+  <si>
+    <t>Code implementation</t>
+  </si>
+  <si>
+    <t>topic and ideas</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>methodology</t>
+  </si>
+  <si>
+    <t>Code &amp; software product</t>
+  </si>
+  <si>
+    <t>Test result</t>
+  </si>
+  <si>
+    <t>Completed report</t>
+  </si>
+  <si>
+    <t>PHASE ONE - Requirement</t>
+  </si>
+  <si>
+    <t>PHASE TWO - Implementation</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>PHASE FOUR - Documentation</t>
   </si>
 </sst>
 </file>
@@ -243,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -381,8 +336,14 @@
       <color indexed="8"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,36 +442,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor auto="1"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="32"/>
-        <bgColor auto="1"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="33"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="34"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -804,19 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="17"/>
       </left>
@@ -836,21 +772,6 @@
         <color indexed="17"/>
       </left>
       <right style="hair">
-        <color indexed="17"/>
-      </right>
-      <top style="hair">
-        <color indexed="17"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
         <color indexed="17"/>
       </right>
       <top style="hair">
@@ -888,19 +809,6 @@
         <color indexed="17"/>
       </left>
       <right style="hair">
-        <color indexed="17"/>
-      </right>
-      <top style="hair">
-        <color indexed="17"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
         <color indexed="17"/>
       </right>
       <top style="hair">
@@ -953,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,21 +1017,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1139,77 +1032,111 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1218,10 +1145,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1238,73 +1161,46 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2482,29 +2378,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR26"/>
+  <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="1" customWidth="1"/>
-    <col min="10" max="69" width="3.44140625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="3.88671875" style="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" style="1" customWidth="1"/>
-    <col min="72" max="16384" width="14.44140625" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" customWidth="1"/>
+    <col min="10" max="59" width="3.44140625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="3.88671875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="14.44140625" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -2564,57 +2460,43 @@
       <c r="BE1" s="8"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="11"/>
+      <c r="BH1" s="11"/>
     </row>
-    <row r="2" spans="1:70" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
       <c r="AI2" s="14"/>
@@ -2642,19 +2524,9 @@
       <c r="BE2" s="15"/>
       <c r="BF2" s="15"/>
       <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="15"/>
-      <c r="BQ2" s="15"/>
-      <c r="BR2" s="16"/>
+      <c r="BH2" s="16"/>
     </row>
-    <row r="3" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2714,56 +2586,46 @@
       <c r="BE3" s="15"/>
       <c r="BF3" s="15"/>
       <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="16"/>
+      <c r="BH3" s="16"/>
     </row>
-    <row r="4" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="12"/>
-      <c r="B4" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
+      <c r="B4" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
-      <c r="J4" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
+      <c r="J4" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
       <c r="AD4" s="24"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
@@ -2794,55 +2656,45 @@
       <c r="BE4" s="15"/>
       <c r="BF4" s="15"/>
       <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15"/>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="16"/>
+      <c r="BH4" s="16"/>
     </row>
-    <row r="5" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="12"/>
-      <c r="B5" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
-      <c r="J5" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94">
+      <c r="J5" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="103">
         <v>44686</v>
       </c>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
       <c r="AC5" s="25"/>
       <c r="AD5" s="24"/>
       <c r="AE5" s="15"/>
@@ -2874,19 +2726,9 @@
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
       <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
-      <c r="BK5" s="15"/>
-      <c r="BL5" s="15"/>
-      <c r="BM5" s="15"/>
-      <c r="BN5" s="15"/>
-      <c r="BO5" s="15"/>
-      <c r="BP5" s="15"/>
-      <c r="BQ5" s="15"/>
-      <c r="BR5" s="16"/>
+      <c r="BH5" s="16"/>
     </row>
-    <row r="6" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -2946,19 +2788,9 @@
       <c r="BE6" s="31"/>
       <c r="BF6" s="31"/>
       <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="31"/>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="31"/>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="32"/>
+      <c r="BH6" s="32"/>
     </row>
-    <row r="7" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -3018,416 +2850,352 @@
       <c r="BE7" s="31"/>
       <c r="BF7" s="31"/>
       <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="31"/>
-      <c r="BN7" s="31"/>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="31"/>
-      <c r="BQ7" s="31"/>
-      <c r="BR7" s="32"/>
+      <c r="BH7" s="32"/>
     </row>
-    <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="F8" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="G8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="H8" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="I8" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="118"/>
+      <c r="AD8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="119"/>
+      <c r="AO8" s="119"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="119"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="122"/>
+      <c r="AX8" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY8" s="123"/>
+      <c r="AZ8" s="123"/>
+      <c r="BA8" s="123"/>
+      <c r="BB8" s="123"/>
+      <c r="BC8" s="123"/>
+      <c r="BD8" s="123"/>
+      <c r="BE8" s="123"/>
+      <c r="BF8" s="123"/>
+      <c r="BG8" s="124"/>
+      <c r="BH8" s="33"/>
+    </row>
+    <row r="9" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="114" t="s">
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="103" t="s">
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="100" t="s">
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="101"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="109" t="s">
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="110"/>
-      <c r="BR8" s="33"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="35"/>
     </row>
-    <row r="9" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="113" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="113" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="105"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="104" t="s">
+    <row r="10" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="104" t="s">
+      <c r="K10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="104" t="s">
+      <c r="L10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="107" t="s">
+      <c r="M10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="105"/>
-      <c r="AP9" s="105"/>
-      <c r="AQ9" s="105"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="107" t="s">
+      <c r="N10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="105"/>
-      <c r="AV9" s="105"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="105"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="105"/>
-      <c r="BF9" s="105"/>
-      <c r="BG9" s="106"/>
-      <c r="BH9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI9" s="105"/>
-      <c r="BJ9" s="105"/>
-      <c r="BK9" s="105"/>
-      <c r="BL9" s="106"/>
-      <c r="BM9" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="105"/>
-      <c r="BP9" s="105"/>
-      <c r="BQ9" s="106"/>
-      <c r="BR9" s="35"/>
+      <c r="O10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE10" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH10" s="41"/>
     </row>
-    <row r="10" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AX10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB10" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="BC10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BG10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BH10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BM10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BR10" s="41"/>
-    </row>
-    <row r="11" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="42">
         <v>1</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="119"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
       <c r="L11" s="47"/>
@@ -3478,19 +3246,9 @@
       <c r="BE11" s="45"/>
       <c r="BF11" s="45"/>
       <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BR11" s="32"/>
+      <c r="BH11" s="32"/>
     </row>
-    <row r="12" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="49">
         <v>1.1000000000000001</v>
@@ -3499,7 +3257,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E12" s="51">
         <v>44686</v>
@@ -3515,18 +3273,18 @@
         <v>1</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
+        <v>26</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
       <c r="T12" s="54"/>
       <c r="U12" s="54"/>
       <c r="V12" s="54"/>
@@ -3537,11 +3295,11 @@
       <c r="AA12" s="54"/>
       <c r="AB12" s="54"/>
       <c r="AC12" s="54"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
       <c r="AI12" s="54"/>
       <c r="AJ12" s="54"/>
       <c r="AK12" s="54"/>
@@ -3552,11 +3310,11 @@
       <c r="AP12" s="54"/>
       <c r="AQ12" s="54"/>
       <c r="AR12" s="54"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
+      <c r="AS12" s="110"/>
+      <c r="AT12" s="110"/>
+      <c r="AU12" s="110"/>
+      <c r="AV12" s="110"/>
+      <c r="AW12" s="110"/>
       <c r="AX12" s="54"/>
       <c r="AY12" s="54"/>
       <c r="AZ12" s="54"/>
@@ -3567,1224 +3325,778 @@
       <c r="BE12" s="54"/>
       <c r="BF12" s="54"/>
       <c r="BG12" s="54"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="54"/>
-      <c r="BN12" s="54"/>
-      <c r="BO12" s="54"/>
-      <c r="BP12" s="54"/>
-      <c r="BQ12" s="59"/>
-      <c r="BR12" s="60"/>
+      <c r="BH12" s="55"/>
     </row>
-    <row r="13" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
-      <c r="B13" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>38</v>
+      <c r="B13" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="63">
+        <v>30</v>
+      </c>
+      <c r="E13" s="58">
         <f>F12</f>
         <v>44693</v>
       </c>
       <c r="F13" s="51">
-        <f t="shared" ref="F13:F23" si="0">WORKDAY(E13,G13)</f>
+        <f t="shared" ref="F13:F19" si="0">WORKDAY(E13,G13)</f>
         <v>44700</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="59">
         <v>5</v>
       </c>
-      <c r="H13" s="65">
-        <v>0</v>
+      <c r="H13" s="53">
+        <v>1</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="70"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="67"/>
-      <c r="BN13" s="67"/>
-      <c r="BO13" s="67"/>
-      <c r="BP13" s="67"/>
-      <c r="BQ13" s="72"/>
-      <c r="BR13" s="60"/>
+        <v>28</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="61"/>
+      <c r="BH13" s="55"/>
     </row>
-    <row r="14" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
-      <c r="B14" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>63</v>
+      <c r="B14" s="62">
+        <v>1.3</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="63">
-        <f>F12</f>
-        <v>44693</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="58">
+        <f>F13</f>
+        <v>44700</v>
       </c>
       <c r="F14" s="51">
         <f t="shared" si="0"/>
-        <v>44698</v>
+        <v>44707</v>
       </c>
       <c r="G14" s="52">
-        <v>3</v>
-      </c>
-      <c r="H14" s="65">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H14" s="53">
+        <v>1</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="71"/>
-      <c r="BI14" s="71"/>
-      <c r="BJ14" s="71"/>
-      <c r="BK14" s="71"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="67"/>
-      <c r="BN14" s="67"/>
-      <c r="BO14" s="67"/>
-      <c r="BP14" s="67"/>
-      <c r="BQ14" s="72"/>
-      <c r="BR14" s="60"/>
+        <v>42</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="55"/>
     </row>
-    <row r="15" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
-      <c r="B15" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>64</v>
+      <c r="B15" s="62">
+        <v>1.4</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="63">
-        <f t="shared" ref="E14:E23" si="1">F14</f>
-        <v>44698</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="58">
+        <f t="shared" ref="E15:E19" si="1">F14</f>
+        <v>44707</v>
       </c>
       <c r="F15" s="51">
         <f t="shared" si="0"/>
-        <v>44700</v>
-      </c>
-      <c r="G15" s="64">
-        <v>2</v>
-      </c>
-      <c r="H15" s="65">
-        <v>0</v>
+        <v>44714</v>
+      </c>
+      <c r="G15" s="59">
+        <v>5</v>
+      </c>
+      <c r="H15" s="53">
+        <v>1</v>
       </c>
       <c r="I15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
-      <c r="BC15" s="67"/>
-      <c r="BD15" s="67"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="71"/>
-      <c r="BI15" s="71"/>
-      <c r="BJ15" s="71"/>
-      <c r="BK15" s="71"/>
-      <c r="BL15" s="71"/>
-      <c r="BM15" s="67"/>
-      <c r="BN15" s="67"/>
-      <c r="BO15" s="67"/>
-      <c r="BP15" s="67"/>
-      <c r="BQ15" s="72"/>
-      <c r="BR15" s="60"/>
+        <v>43</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="55"/>
     </row>
-    <row r="16" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
-      <c r="B16" s="73">
-        <v>1.3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
+      <c r="B16" s="62">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="63">
-        <f t="shared" si="1"/>
-        <v>44700</v>
+        <v>30</v>
+      </c>
+      <c r="E16" s="58">
+        <f>F15</f>
+        <v>44714</v>
       </c>
       <c r="F16" s="51">
         <f t="shared" si="0"/>
-        <v>44707</v>
+        <v>44721</v>
       </c>
       <c r="G16" s="52">
         <v>5</v>
       </c>
-      <c r="H16" s="65">
-        <v>0</v>
+      <c r="H16" s="53">
+        <v>1</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
-      <c r="BC16" s="67"/>
-      <c r="BD16" s="67"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="71"/>
-      <c r="BI16" s="71"/>
-      <c r="BJ16" s="71"/>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="67"/>
-      <c r="BN16" s="67"/>
-      <c r="BO16" s="67"/>
-      <c r="BP16" s="67"/>
-      <c r="BQ16" s="72"/>
-      <c r="BR16" s="60"/>
+        <v>44</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="55"/>
     </row>
-    <row r="17" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" s="73" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
-      <c r="B17" s="73">
-        <v>1.4</v>
-      </c>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="62">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="63">
+        <v>30</v>
+      </c>
+      <c r="E17" s="58">
         <f t="shared" si="1"/>
-        <v>44707</v>
+        <v>44721</v>
       </c>
       <c r="F17" s="51">
         <f t="shared" si="0"/>
-        <v>44714</v>
-      </c>
-      <c r="G17" s="64">
-        <v>5</v>
-      </c>
-      <c r="H17" s="65">
-        <v>0</v>
+        <v>44735</v>
+      </c>
+      <c r="G17" s="59">
+        <v>10</v>
+      </c>
+      <c r="H17" s="53">
+        <v>1</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="67"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="67"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="67"/>
-      <c r="AQ17" s="67"/>
-      <c r="AR17" s="67"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
-      <c r="BC17" s="67"/>
-      <c r="BD17" s="67"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="71"/>
-      <c r="BI17" s="71"/>
-      <c r="BJ17" s="71"/>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="67"/>
-      <c r="BN17" s="67"/>
-      <c r="BO17" s="67"/>
-      <c r="BP17" s="67"/>
-      <c r="BQ17" s="72"/>
-      <c r="BR17" s="60"/>
+        <v>45</v>
+      </c>
+      <c r="J17" s="60"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="61"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="61"/>
+      <c r="BH17" s="55"/>
     </row>
-    <row r="18" spans="1:70" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
-      <c r="B18" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>65</v>
+      <c r="B18" s="63">
+        <v>1.7</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="63">
-        <f>F16</f>
-        <v>44707</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="58">
+        <f t="shared" si="1"/>
+        <v>44735</v>
       </c>
       <c r="F18" s="51">
         <f t="shared" si="0"/>
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="G18" s="52">
-        <v>3</v>
-      </c>
-      <c r="H18" s="65">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H18" s="53">
+        <v>1</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="67"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="67"/>
-      <c r="AL18" s="67"/>
-      <c r="AM18" s="67"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="67"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="67"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
-      <c r="BC18" s="67"/>
-      <c r="BD18" s="67"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="67"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="71"/>
-      <c r="BJ18" s="71"/>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
-      <c r="BM18" s="67"/>
-      <c r="BN18" s="67"/>
-      <c r="BO18" s="67"/>
-      <c r="BP18" s="67"/>
-      <c r="BQ18" s="72"/>
-      <c r="BR18" s="60"/>
+        <v>46</v>
+      </c>
+      <c r="J18" s="64"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="79"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="112"/>
+      <c r="AW18" s="112"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="55"/>
     </row>
-    <row r="19" spans="1:70" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>66</v>
+      <c r="B19" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="63">
+        <v>30</v>
+      </c>
+      <c r="E19" s="58">
         <f t="shared" si="1"/>
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="F19" s="51">
         <f t="shared" si="0"/>
-        <v>44714</v>
-      </c>
-      <c r="G19" s="64">
-        <v>2</v>
-      </c>
-      <c r="H19" s="65">
-        <v>0</v>
+        <v>44756</v>
+      </c>
+      <c r="G19" s="59">
+        <v>10</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="67"/>
-      <c r="AM19" s="67"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="67"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="67"/>
-      <c r="BH19" s="71"/>
-      <c r="BI19" s="71"/>
-      <c r="BJ19" s="71"/>
-      <c r="BK19" s="71"/>
-      <c r="BL19" s="71"/>
-      <c r="BM19" s="67"/>
-      <c r="BN19" s="67"/>
-      <c r="BO19" s="67"/>
-      <c r="BP19" s="67"/>
-      <c r="BQ19" s="72"/>
-      <c r="BR19" s="60"/>
+        <v>47</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="79"/>
+      <c r="AT19" s="79"/>
+      <c r="AU19" s="79"/>
+      <c r="AV19" s="79"/>
+      <c r="AW19" s="79"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="76"/>
+      <c r="BC19" s="112"/>
+      <c r="BD19" s="112"/>
+      <c r="BE19" s="112"/>
+      <c r="BF19" s="112"/>
+      <c r="BG19" s="112"/>
+      <c r="BH19" s="55"/>
     </row>
-    <row r="20" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="73">
-        <v>1.3</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="63">
-        <f t="shared" si="1"/>
-        <v>44714</v>
-      </c>
-      <c r="F20" s="51">
-        <f t="shared" si="0"/>
-        <v>44721</v>
-      </c>
-      <c r="G20" s="52">
-        <v>5</v>
-      </c>
-      <c r="H20" s="65">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="125"/>
+    <row r="20" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="67"/>
-      <c r="AM20" s="67"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="67"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="67"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="67"/>
-      <c r="BH20" s="71"/>
-      <c r="BI20" s="71"/>
-      <c r="BJ20" s="71"/>
-      <c r="BK20" s="71"/>
-      <c r="BL20" s="71"/>
-      <c r="BM20" s="67"/>
-      <c r="BN20" s="67"/>
-      <c r="BO20" s="67"/>
-      <c r="BP20" s="67"/>
-      <c r="BQ20" s="72"/>
-      <c r="BR20" s="60"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="32"/>
     </row>
-    <row r="21" spans="1:70" s="118" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="73">
-        <v>1.4</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="63">
-        <f t="shared" si="1"/>
-        <v>44721</v>
-      </c>
-      <c r="F21" s="51">
-        <f t="shared" si="0"/>
-        <v>44728</v>
-      </c>
-      <c r="G21" s="64">
-        <v>5</v>
-      </c>
-      <c r="H21" s="65">
-        <v>0</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="67"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="67"/>
-      <c r="BH21" s="71"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="71"/>
-      <c r="BK21" s="71"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
-      <c r="BP21" s="67"/>
-      <c r="BQ21" s="72"/>
-      <c r="BR21" s="60"/>
+    <row r="21" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="32"/>
     </row>
-    <row r="22" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="74">
-        <v>1.5</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="63">
-        <f t="shared" si="1"/>
-        <v>44728</v>
-      </c>
-      <c r="F22" s="51">
-        <f t="shared" si="0"/>
-        <v>44735</v>
-      </c>
-      <c r="G22" s="52">
-        <v>5</v>
-      </c>
-      <c r="H22" s="65">
-        <v>0</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="77"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="122"/>
-      <c r="AO22" s="122"/>
-      <c r="AP22" s="122"/>
-      <c r="AQ22" s="122"/>
-      <c r="AR22" s="122"/>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="79"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="76"/>
-      <c r="AY22" s="76"/>
-      <c r="AZ22" s="76"/>
-      <c r="BA22" s="76"/>
-      <c r="BB22" s="76"/>
-      <c r="BC22" s="76"/>
-      <c r="BD22" s="76"/>
-      <c r="BE22" s="76"/>
-      <c r="BF22" s="76"/>
-      <c r="BG22" s="76"/>
-      <c r="BH22" s="80"/>
-      <c r="BI22" s="80"/>
-      <c r="BJ22" s="80"/>
-      <c r="BK22" s="80"/>
-      <c r="BL22" s="80"/>
-      <c r="BM22" s="76"/>
-      <c r="BN22" s="76"/>
-      <c r="BO22" s="76"/>
-      <c r="BP22" s="76"/>
-      <c r="BQ22" s="81"/>
-      <c r="BR22" s="60"/>
-    </row>
-    <row r="23" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="74">
-        <v>1.5</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="63">
-        <f t="shared" si="1"/>
-        <v>44735</v>
-      </c>
-      <c r="F23" s="51">
-        <f t="shared" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="G23" s="64">
-        <v>10</v>
-      </c>
-      <c r="H23" s="65">
-        <v>0</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="75"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="122"/>
-      <c r="AT23" s="122"/>
-      <c r="AU23" s="122"/>
-      <c r="AV23" s="122"/>
-      <c r="AW23" s="122"/>
-      <c r="AX23" s="122"/>
-      <c r="AY23" s="122"/>
-      <c r="AZ23" s="122"/>
-      <c r="BA23" s="122"/>
-      <c r="BB23" s="122"/>
-      <c r="BC23" s="76"/>
-      <c r="BD23" s="76"/>
-      <c r="BE23" s="76"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="76"/>
-      <c r="BH23" s="80"/>
-      <c r="BI23" s="80"/>
-      <c r="BJ23" s="80"/>
-      <c r="BK23" s="80"/>
-      <c r="BL23" s="80"/>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="76"/>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="76"/>
-      <c r="BQ23" s="81"/>
-      <c r="BR23" s="60"/>
-    </row>
-    <row r="24" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="84"/>
-      <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="84"/>
-      <c r="AV24" s="84"/>
-      <c r="AW24" s="84"/>
-      <c r="AX24" s="84"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="84"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="84"/>
-      <c r="BE24" s="84"/>
-      <c r="BF24" s="84"/>
-      <c r="BG24" s="84"/>
-      <c r="BH24" s="84"/>
-      <c r="BI24" s="84"/>
-      <c r="BJ24" s="84"/>
-      <c r="BK24" s="84"/>
-      <c r="BL24" s="84"/>
-      <c r="BM24" s="84"/>
-      <c r="BN24" s="84"/>
-      <c r="BO24" s="84"/>
-      <c r="BP24" s="84"/>
-      <c r="BQ24" s="84"/>
-      <c r="BR24" s="32"/>
-    </row>
-    <row r="25" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="31"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="31"/>
-      <c r="BI25" s="31"/>
-      <c r="BJ25" s="31"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
-      <c r="BM25" s="31"/>
-      <c r="BN25" s="31"/>
-      <c r="BO25" s="31"/>
-      <c r="BP25" s="31"/>
-      <c r="BQ25" s="31"/>
-      <c r="BR25" s="32"/>
-    </row>
-    <row r="26" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="86"/>
-      <c r="AO26" s="86"/>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-      <c r="AU26" s="86"/>
-      <c r="AV26" s="86"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="86"/>
-      <c r="BC26" s="86"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="86"/>
-      <c r="BI26" s="86"/>
-      <c r="BJ26" s="86"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="86"/>
-      <c r="BM26" s="86"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="86"/>
-      <c r="BP26" s="86"/>
-      <c r="BQ26" s="86"/>
-      <c r="BR26" s="88"/>
+    <row r="22" spans="1:60" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="70"/>
+      <c r="BG22" s="70"/>
+      <c r="BH22" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
+    <mergeCell ref="AX8:BG8"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="P2:AF2"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AI9:AM9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="J8:AC8"/>
+    <mergeCell ref="AD8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="I8:I10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="B8:B10"/>
@@ -4794,35 +4106,9 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="J8:X8"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="BH9:BL9"/>
-    <mergeCell ref="BM9:BQ9"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC8:BQ8"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="Y8:AM8"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AI9:AM9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="P2:AF2"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
